--- a/data/trans_orig/DCD_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>50333</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38668</v>
+        <v>38313</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64378</v>
+        <v>63392</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09141174448278071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0702265896668155</v>
+        <v>0.06958103715349732</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1169192486392934</v>
+        <v>0.1151288503214618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>141</v>
@@ -762,19 +762,19 @@
         <v>102855</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87226</v>
+        <v>88249</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120362</v>
+        <v>118744</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.210590423814232</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1785920720716849</v>
+        <v>0.1806859441382969</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2464365634408988</v>
+        <v>0.2431223483756406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -783,19 +783,19 @@
         <v>153188</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132945</v>
+        <v>130187</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>176180</v>
+        <v>175044</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1474334299473822</v>
+        <v>0.1474334299473821</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1279510848191748</v>
+        <v>0.1252970862751747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1695625071284013</v>
+        <v>0.1684684505518691</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>500285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>486240</v>
+        <v>487226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>511950</v>
+        <v>512305</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9085882555172194</v>
+        <v>0.9085882555172192</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8830807513607066</v>
+        <v>0.884871149678538</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9297734103331845</v>
+        <v>0.9304189628465027</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>545</v>
@@ -833,19 +833,19 @@
         <v>385556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>368049</v>
+        <v>369667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>401185</v>
+        <v>400162</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7894095761857682</v>
+        <v>0.789409576185768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7535634365591011</v>
+        <v>0.7568776516243594</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8214079279283149</v>
+        <v>0.8193140558617031</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1040</v>
@@ -854,19 +854,19 @@
         <v>885841</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>862849</v>
+        <v>863985</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>906084</v>
+        <v>908842</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8525665700526179</v>
+        <v>0.8525665700526178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8304374928715983</v>
+        <v>0.8315315494481309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8720489151808249</v>
+        <v>0.8747029137248253</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>49106</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37516</v>
+        <v>36986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62485</v>
+        <v>62468</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1016235918203212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07763933245717022</v>
+        <v>0.07654278460159378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1293107996408124</v>
+        <v>0.1292772894770388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -979,19 +979,19 @@
         <v>103680</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88718</v>
+        <v>87701</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119760</v>
+        <v>120030</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2450231504593005</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2096638193912375</v>
+        <v>0.2072601043065122</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2830250839387207</v>
+        <v>0.2836639014157513</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>206</v>
@@ -1000,19 +1000,19 @@
         <v>152786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132438</v>
+        <v>132838</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>172428</v>
+        <v>173151</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.168571419605843</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1461217828394936</v>
+        <v>0.1465628051426927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1902430276228973</v>
+        <v>0.1910407952858994</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>434106</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>420727</v>
+        <v>420744</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>445696</v>
+        <v>446226</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8983764081796789</v>
+        <v>0.8983764081796788</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8706892003591875</v>
+        <v>0.8707227105229612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9223606675428296</v>
+        <v>0.9234572153984062</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>439</v>
@@ -1050,19 +1050,19 @@
         <v>319463</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>303383</v>
+        <v>303113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>334425</v>
+        <v>335442</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7549768495406994</v>
+        <v>0.7549768495406993</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7169749160612795</v>
+        <v>0.7163360985842483</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7903361806087625</v>
+        <v>0.7927398956934878</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>865</v>
@@ -1071,19 +1071,19 @@
         <v>753569</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>733927</v>
+        <v>733204</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>773917</v>
+        <v>773517</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.831428580394157</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8097569723771029</v>
+        <v>0.8089592047141007</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8538782171605064</v>
+        <v>0.8534371948573072</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>75354</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60916</v>
+        <v>61296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92715</v>
+        <v>91855</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1597788828368251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1291647676467178</v>
+        <v>0.1299716833725181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1965914923047789</v>
+        <v>0.1947689158499799</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -1196,19 +1196,19 @@
         <v>64002</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53250</v>
+        <v>53943</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74980</v>
+        <v>75787</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3413499285534948</v>
+        <v>0.3413499285534949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2840054280162934</v>
+        <v>0.287702772571215</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3999021322115777</v>
+        <v>0.4042017439128021</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>190</v>
@@ -1217,19 +1217,19 @@
         <v>139356</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121107</v>
+        <v>119589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159109</v>
+        <v>158845</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2114305490985293</v>
+        <v>0.2114305490985294</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.183744183355471</v>
+        <v>0.1814407175706997</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2413993864213121</v>
+        <v>0.2409989392451065</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>396258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>378897</v>
+        <v>379757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>410696</v>
+        <v>410316</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.840221117163175</v>
+        <v>0.8402211171631749</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8034085076952213</v>
+        <v>0.8052310841500201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8708352323532824</v>
+        <v>0.8700283166274823</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>187</v>
@@ -1267,19 +1267,19 @@
         <v>123495</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112517</v>
+        <v>111710</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>134247</v>
+        <v>133554</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6586500714465052</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6000978677884228</v>
+        <v>0.5957982560871979</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7159945719837066</v>
+        <v>0.7122972274287849</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>587</v>
@@ -1288,19 +1288,19 @@
         <v>519753</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>500000</v>
+        <v>500264</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>538002</v>
+        <v>539520</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7885694509014707</v>
+        <v>0.7885694509014708</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.758600613578688</v>
+        <v>0.7590010607548937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8162558166445293</v>
+        <v>0.8185592824293006</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>201474</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>176046</v>
+        <v>176234</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>227625</v>
+        <v>226330</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1780055655084527</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1555394120170011</v>
+        <v>0.1557053184437943</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2011100821493806</v>
+        <v>0.1999662917099585</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>331</v>
@@ -1413,19 +1413,19 @@
         <v>218712</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>197378</v>
+        <v>197244</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>241454</v>
+        <v>241900</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2539584175239842</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2291864529147797</v>
+        <v>0.2290307028467916</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2803650929761597</v>
+        <v>0.2808829955159019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>567</v>
@@ -1434,19 +1434,19 @@
         <v>420186</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>389737</v>
+        <v>384958</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>457724</v>
+        <v>454698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2108252767707486</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.195547549498275</v>
+        <v>0.1931495811839777</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2296597411189999</v>
+        <v>0.2281411022094477</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>930369</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>904218</v>
+        <v>905513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>955797</v>
+        <v>955609</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8219944344915472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7988899178506194</v>
+        <v>0.8000337082900413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8444605879829989</v>
+        <v>0.8442946815562056</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>899</v>
@@ -1484,19 +1484,19 @@
         <v>642499</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>619757</v>
+        <v>619311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>663833</v>
+        <v>663967</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7460415824760159</v>
+        <v>0.7460415824760157</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7196349070238404</v>
+        <v>0.7191170044840981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7708135470852203</v>
+        <v>0.7709692971532083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1781</v>
@@ -1505,19 +1505,19 @@
         <v>1572868</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1535330</v>
+        <v>1538356</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1603317</v>
+        <v>1608096</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7891747232292514</v>
+        <v>0.7891747232292515</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7703402588810003</v>
+        <v>0.7718588977905523</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.804452450501725</v>
+        <v>0.8068504188160223</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>99197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82300</v>
+        <v>82713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118177</v>
+        <v>117766</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1746536088793812</v>
+        <v>0.1746536088793811</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1449044285139345</v>
+        <v>0.1456301216098591</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2080714245726145</v>
+        <v>0.2073481624460678</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>508</v>
@@ -1630,19 +1630,19 @@
         <v>296636</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>271946</v>
+        <v>272295</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>318224</v>
+        <v>318551</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3570271528198958</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3273104372341459</v>
+        <v>0.3277307452064808</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3830098607157258</v>
+        <v>0.3834043117267852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>623</v>
@@ -1651,19 +1651,19 @@
         <v>395833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>366748</v>
+        <v>371326</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>424708</v>
+        <v>427074</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2829775922708784</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2621851221540237</v>
+        <v>0.2654574996337538</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3036201970868739</v>
+        <v>0.3053113732110393</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>468767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>449787</v>
+        <v>450198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>485664</v>
+        <v>485251</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8253463911206188</v>
+        <v>0.8253463911206187</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7919285754273855</v>
+        <v>0.7926518375539318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8550955714860656</v>
+        <v>0.8543698783901408</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>782</v>
@@ -1701,19 +1701,19 @@
         <v>534214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>512626</v>
+        <v>512299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>558904</v>
+        <v>558555</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6429728471801042</v>
+        <v>0.6429728471801043</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6169901392842739</v>
+        <v>0.6165956882732148</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6726895627658537</v>
+        <v>0.6722692547935192</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1214</v>
@@ -1722,19 +1722,19 @@
         <v>1002981</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>974106</v>
+        <v>971740</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1032066</v>
+        <v>1027488</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7170224077291216</v>
+        <v>0.7170224077291215</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6963798029131262</v>
+        <v>0.6946886267889608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7378148778459763</v>
+        <v>0.7345425003662464</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>7546</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3391</v>
+        <v>3920</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14836</v>
+        <v>15831</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0318111589357617</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01429504931363926</v>
+        <v>0.01652228988405672</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06253875035136401</v>
+        <v>0.06673280830851269</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>385</v>
@@ -1847,19 +1847,19 @@
         <v>242976</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>218767</v>
+        <v>219968</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>268835</v>
+        <v>268171</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2877900663979449</v>
+        <v>0.287790066397945</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.259115953524851</v>
+        <v>0.2605390648676789</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3184186471507387</v>
+        <v>0.3176318670430158</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>394</v>
@@ -1868,19 +1868,19 @@
         <v>250522</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>222604</v>
+        <v>224540</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>276767</v>
+        <v>278857</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2316413754658098</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2058276172265018</v>
+        <v>0.2076173184411204</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.255907891620582</v>
+        <v>0.2578409271977609</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>229682</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222392</v>
+        <v>221397</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233837</v>
+        <v>233308</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9681888410642383</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9374612496486358</v>
+        <v>0.9332671916914871</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9857049506863607</v>
+        <v>0.9834777101159433</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>774</v>
@@ -1918,19 +1918,19 @@
         <v>601305</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>575446</v>
+        <v>576110</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>625514</v>
+        <v>624313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7122099336020551</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6815813528492612</v>
+        <v>0.6823681329569842</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7408840464751489</v>
+        <v>0.739460935132321</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>877</v>
@@ -1939,19 +1939,19 @@
         <v>830987</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>804742</v>
+        <v>802652</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>858905</v>
+        <v>856969</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7683586245341902</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.744092108379418</v>
+        <v>0.742159072802239</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.794172382773498</v>
+        <v>0.7923826815588796</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>483010</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>442791</v>
+        <v>441612</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>523845</v>
+        <v>524414</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1403088939277263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1286257018059098</v>
+        <v>0.1282833253222298</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1521710994357888</v>
+        <v>0.1523363785220015</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1618</v>
@@ -2064,19 +2064,19 @@
         <v>1028860</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>985077</v>
+        <v>986172</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1076192</v>
+        <v>1077960</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2830120713519241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2709685696036686</v>
+        <v>0.2712696538190768</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2960318155510975</v>
+        <v>0.2965180710316965</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2180</v>
@@ -2085,19 +2085,19 @@
         <v>1511870</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1443167</v>
+        <v>1451651</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1571546</v>
+        <v>1578931</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2136052695836279</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2038984629085102</v>
+        <v>0.2050972413405843</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2220365737578263</v>
+        <v>0.2230799948808282</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2959466</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2918631</v>
+        <v>2918062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2999685</v>
+        <v>3000864</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8596911060722737</v>
+        <v>0.8596911060722739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8478289005642112</v>
+        <v>0.8476636214779985</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8713742981940902</v>
+        <v>0.8717166746777701</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3626</v>
@@ -2135,19 +2135,19 @@
         <v>2606533</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2559201</v>
+        <v>2557433</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2650316</v>
+        <v>2649221</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.716987928648076</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7039681844489026</v>
+        <v>0.7034819289683034</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7290314303963314</v>
+        <v>0.7287303461809231</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6364</v>
@@ -2156,19 +2156,19 @@
         <v>5565999</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5506323</v>
+        <v>5498938</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5634702</v>
+        <v>5626218</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7863947304163721</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7779634262421738</v>
+        <v>0.7769200051191718</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7961015370914897</v>
+        <v>0.794902758659416</v>
       </c>
     </row>
     <row r="24">
